--- a/StrainAllele.xlsx
+++ b/StrainAllele.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="StrainAllele"/>
   </sheets>
   <definedNames>
-    <definedName name="StrainAllele">'StrainAllele'!$A$1:$G$746</definedName>
+    <definedName name="StrainAllele">'StrainAllele'!$A$1:$G$969</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G746"/>
+  <dimension ref="A1:G969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="F16" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="F78" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="79">
@@ -15396,7 +15396,7 @@
         <v>1</v>
       </c>
       <c r="F745" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row outlineLevel="0" r="746">
@@ -15415,6 +15415,5954 @@
         <v>2</v>
       </c>
       <c r="F746" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="747">
+      <c r="A747" s="0">
+        <v>813</v>
+      </c>
+      <c r="B747" s="0" t="inlineStr">
+        <is>
+          <t>AG930</t>
+        </is>
+      </c>
+      <c r="C747" s="0">
+        <v>7</v>
+      </c>
+      <c r="D747" s="0">
+        <v>1</v>
+      </c>
+      <c r="F747" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="748">
+      <c r="A748" s="0">
+        <v>814</v>
+      </c>
+      <c r="B748" s="0" t="inlineStr">
+        <is>
+          <t>AG930</t>
+        </is>
+      </c>
+      <c r="C748" s="0">
+        <v>142</v>
+      </c>
+      <c r="D748" s="0">
+        <v>2</v>
+      </c>
+      <c r="F748" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="749">
+      <c r="A749" s="0">
+        <v>815</v>
+      </c>
+      <c r="B749" s="0" t="inlineStr">
+        <is>
+          <t>AG1145</t>
+        </is>
+      </c>
+      <c r="C749" s="0">
+        <v>3</v>
+      </c>
+      <c r="E749" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F749" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G749" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="750">
+      <c r="A750" s="0">
+        <v>816</v>
+      </c>
+      <c r="B750" s="0" t="inlineStr">
+        <is>
+          <t>AG1145</t>
+        </is>
+      </c>
+      <c r="C750" s="0">
+        <v>11</v>
+      </c>
+      <c r="D750" s="0">
+        <v>3</v>
+      </c>
+      <c r="E750" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F750" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G750" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="751">
+      <c r="A751" s="0">
+        <v>817</v>
+      </c>
+      <c r="B751" s="0" t="inlineStr">
+        <is>
+          <t>AG1145</t>
+        </is>
+      </c>
+      <c r="C751" s="0">
+        <v>10</v>
+      </c>
+      <c r="D751" s="0">
+        <v>2</v>
+      </c>
+      <c r="E751" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F751" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G751" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="752">
+      <c r="A752" s="0">
+        <v>818</v>
+      </c>
+      <c r="B752" s="0" t="inlineStr">
+        <is>
+          <t>AG1145</t>
+        </is>
+      </c>
+      <c r="C752" s="0">
+        <v>19</v>
+      </c>
+      <c r="D752" s="0">
+        <v>4</v>
+      </c>
+      <c r="E752" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F752" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G752" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="753">
+      <c r="A753" s="0">
+        <v>819</v>
+      </c>
+      <c r="B753" s="0" t="inlineStr">
+        <is>
+          <t>AG1145</t>
+        </is>
+      </c>
+      <c r="C753" s="0">
+        <v>7</v>
+      </c>
+      <c r="D753" s="0">
+        <v>1</v>
+      </c>
+      <c r="E753" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F753" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G753" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="754">
+      <c r="A754" s="0">
+        <v>820</v>
+      </c>
+      <c r="B754" s="0" t="inlineStr">
+        <is>
+          <t>AG1150</t>
+        </is>
+      </c>
+      <c r="C754" s="0">
+        <v>3</v>
+      </c>
+      <c r="E754" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F754" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G754" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="755">
+      <c r="A755" s="0">
+        <v>821</v>
+      </c>
+      <c r="B755" s="0" t="inlineStr">
+        <is>
+          <t>AG1150</t>
+        </is>
+      </c>
+      <c r="C755" s="0">
+        <v>5</v>
+      </c>
+      <c r="D755" s="0">
+        <v>3</v>
+      </c>
+      <c r="E755" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F755" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G755" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="756">
+      <c r="A756" s="0">
+        <v>822</v>
+      </c>
+      <c r="B756" s="0" t="inlineStr">
+        <is>
+          <t>AG1150</t>
+        </is>
+      </c>
+      <c r="C756" s="0">
+        <v>10</v>
+      </c>
+      <c r="D756" s="0">
+        <v>2</v>
+      </c>
+      <c r="E756" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F756" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G756" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="757">
+      <c r="A757" s="0">
+        <v>823</v>
+      </c>
+      <c r="B757" s="0" t="inlineStr">
+        <is>
+          <t>AG1150</t>
+        </is>
+      </c>
+      <c r="C757" s="0">
+        <v>7</v>
+      </c>
+      <c r="D757" s="0">
+        <v>1</v>
+      </c>
+      <c r="E757" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F757" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G757" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="758">
+      <c r="A758" s="0">
+        <v>824</v>
+      </c>
+      <c r="B758" s="0" t="inlineStr">
+        <is>
+          <t>AG1155</t>
+        </is>
+      </c>
+      <c r="C758" s="0">
+        <v>11</v>
+      </c>
+      <c r="D758" s="0">
+        <v>4</v>
+      </c>
+      <c r="E758" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F758" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G758" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="759">
+      <c r="A759" s="0">
+        <v>825</v>
+      </c>
+      <c r="B759" s="0" t="inlineStr">
+        <is>
+          <t>AG1155</t>
+        </is>
+      </c>
+      <c r="C759" s="0">
+        <v>144</v>
+      </c>
+      <c r="D759" s="0">
+        <v>3</v>
+      </c>
+      <c r="E759" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F759" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G759" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="760">
+      <c r="A760" s="0">
+        <v>826</v>
+      </c>
+      <c r="B760" s="0" t="inlineStr">
+        <is>
+          <t>AG1218</t>
+        </is>
+      </c>
+      <c r="C760" s="0">
+        <v>134</v>
+      </c>
+      <c r="D760" s="0">
+        <v>2</v>
+      </c>
+      <c r="E760" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F760" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G760" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="761">
+      <c r="A761" s="0">
+        <v>827</v>
+      </c>
+      <c r="B761" s="0" t="inlineStr">
+        <is>
+          <t>AG1218</t>
+        </is>
+      </c>
+      <c r="C761" s="0">
+        <v>7</v>
+      </c>
+      <c r="D761" s="0">
+        <v>1</v>
+      </c>
+      <c r="E761" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F761" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G761" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="762">
+      <c r="A762" s="0">
+        <v>828</v>
+      </c>
+      <c r="B762" s="0" t="inlineStr">
+        <is>
+          <t>AG1326</t>
+        </is>
+      </c>
+      <c r="C762" s="0">
+        <v>133</v>
+      </c>
+      <c r="D762" s="0">
+        <v>2</v>
+      </c>
+      <c r="E762" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F762" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G762" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="763">
+      <c r="A763" s="0">
+        <v>829</v>
+      </c>
+      <c r="B763" s="0" t="inlineStr">
+        <is>
+          <t>AG1326</t>
+        </is>
+      </c>
+      <c r="C763" s="0">
+        <v>7</v>
+      </c>
+      <c r="D763" s="0">
+        <v>1</v>
+      </c>
+      <c r="E763" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F763" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G763" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="764">
+      <c r="A764" s="0">
+        <v>831</v>
+      </c>
+      <c r="B764" s="0" t="inlineStr">
+        <is>
+          <t>AG1327</t>
+        </is>
+      </c>
+      <c r="C764" s="0">
+        <v>137</v>
+      </c>
+      <c r="E764" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F764" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G764" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="765">
+      <c r="A765" s="0">
+        <v>832</v>
+      </c>
+      <c r="B765" s="0" t="inlineStr">
+        <is>
+          <t>AG1327</t>
+        </is>
+      </c>
+      <c r="C765" s="0">
+        <v>7</v>
+      </c>
+      <c r="E765" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F765" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G765" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="766">
+      <c r="A766" s="0">
+        <v>833</v>
+      </c>
+      <c r="B766" s="0" t="inlineStr">
+        <is>
+          <t>AG1328</t>
+        </is>
+      </c>
+      <c r="C766" s="0">
+        <v>141</v>
+      </c>
+      <c r="D766" s="0">
+        <v>2</v>
+      </c>
+      <c r="E766" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F766" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G766" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="767">
+      <c r="A767" s="0">
+        <v>834</v>
+      </c>
+      <c r="B767" s="0" t="inlineStr">
+        <is>
+          <t>AG1328</t>
+        </is>
+      </c>
+      <c r="C767" s="0">
+        <v>7</v>
+      </c>
+      <c r="D767" s="0">
+        <v>1</v>
+      </c>
+      <c r="E767" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F767" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G767" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="768">
+      <c r="A768" s="0">
+        <v>835</v>
+      </c>
+      <c r="B768" s="0" t="inlineStr">
+        <is>
+          <t>AG1329</t>
+        </is>
+      </c>
+      <c r="C768" s="0">
+        <v>139</v>
+      </c>
+      <c r="D768" s="0">
+        <v>2</v>
+      </c>
+      <c r="E768" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F768" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G768" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="769">
+      <c r="A769" s="0">
+        <v>836</v>
+      </c>
+      <c r="B769" s="0" t="inlineStr">
+        <is>
+          <t>AG1329</t>
+        </is>
+      </c>
+      <c r="C769" s="0">
+        <v>7</v>
+      </c>
+      <c r="D769" s="0">
+        <v>1</v>
+      </c>
+      <c r="E769" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F769" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G769" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="770">
+      <c r="A770" s="0">
+        <v>837</v>
+      </c>
+      <c r="B770" s="0" t="inlineStr">
+        <is>
+          <t>AG2061</t>
+        </is>
+      </c>
+      <c r="C770" s="0">
+        <v>3</v>
+      </c>
+      <c r="E770" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F770" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G770" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="771">
+      <c r="A771" s="0">
+        <v>838</v>
+      </c>
+      <c r="B771" s="0" t="inlineStr">
+        <is>
+          <t>AG2061</t>
+        </is>
+      </c>
+      <c r="C771" s="0">
+        <v>11</v>
+      </c>
+      <c r="D771" s="0">
+        <v>3</v>
+      </c>
+      <c r="E771" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F771" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G771" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="772">
+      <c r="A772" s="0">
+        <v>839</v>
+      </c>
+      <c r="B772" s="0" t="inlineStr">
+        <is>
+          <t>AG2061</t>
+        </is>
+      </c>
+      <c r="C772" s="0">
+        <v>24</v>
+      </c>
+      <c r="D772" s="0">
+        <v>5</v>
+      </c>
+      <c r="E772" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F772" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G772" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="773">
+      <c r="A773" s="0">
+        <v>840</v>
+      </c>
+      <c r="B773" s="0" t="inlineStr">
+        <is>
+          <t>AG2061</t>
+        </is>
+      </c>
+      <c r="C773" s="0">
+        <v>10</v>
+      </c>
+      <c r="D773" s="0">
+        <v>2</v>
+      </c>
+      <c r="E773" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F773" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G773" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="774">
+      <c r="A774" s="0">
+        <v>841</v>
+      </c>
+      <c r="B774" s="0" t="inlineStr">
+        <is>
+          <t>AG2061</t>
+        </is>
+      </c>
+      <c r="C774" s="0">
+        <v>19</v>
+      </c>
+      <c r="D774" s="0">
+        <v>4</v>
+      </c>
+      <c r="E774" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F774" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G774" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="775">
+      <c r="A775" s="0">
+        <v>842</v>
+      </c>
+      <c r="B775" s="0" t="inlineStr">
+        <is>
+          <t>AG2061</t>
+        </is>
+      </c>
+      <c r="C775" s="0">
+        <v>7</v>
+      </c>
+      <c r="D775" s="0">
+        <v>1</v>
+      </c>
+      <c r="E775" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F775" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G775" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="776">
+      <c r="A776" s="0">
+        <v>843</v>
+      </c>
+      <c r="B776" s="0" t="inlineStr">
+        <is>
+          <t>AG2062</t>
+        </is>
+      </c>
+      <c r="C776" s="0">
+        <v>3</v>
+      </c>
+      <c r="E776" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F776" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G776" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="777">
+      <c r="A777" s="0">
+        <v>844</v>
+      </c>
+      <c r="B777" s="0" t="inlineStr">
+        <is>
+          <t>AG2062</t>
+        </is>
+      </c>
+      <c r="C777" s="0">
+        <v>11</v>
+      </c>
+      <c r="D777" s="0">
+        <v>3</v>
+      </c>
+      <c r="E777" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F777" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G777" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="778">
+      <c r="A778" s="0">
+        <v>845</v>
+      </c>
+      <c r="B778" s="0" t="inlineStr">
+        <is>
+          <t>AG2062</t>
+        </is>
+      </c>
+      <c r="C778" s="0">
+        <v>24</v>
+      </c>
+      <c r="D778" s="0">
+        <v>5</v>
+      </c>
+      <c r="E778" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F778" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G778" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="779">
+      <c r="A779" s="0">
+        <v>846</v>
+      </c>
+      <c r="B779" s="0" t="inlineStr">
+        <is>
+          <t>AG2062</t>
+        </is>
+      </c>
+      <c r="C779" s="0">
+        <v>135</v>
+      </c>
+      <c r="D779" s="0">
+        <v>8</v>
+      </c>
+      <c r="E779" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F779" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G779" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="780">
+      <c r="A780" s="0">
+        <v>847</v>
+      </c>
+      <c r="B780" s="0" t="inlineStr">
+        <is>
+          <t>AG2062</t>
+        </is>
+      </c>
+      <c r="C780" s="0">
+        <v>10</v>
+      </c>
+      <c r="D780" s="0">
+        <v>2</v>
+      </c>
+      <c r="E780" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F780" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G780" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="781">
+      <c r="A781" s="0">
+        <v>848</v>
+      </c>
+      <c r="B781" s="0" t="inlineStr">
+        <is>
+          <t>AG2062</t>
+        </is>
+      </c>
+      <c r="C781" s="0">
+        <v>19</v>
+      </c>
+      <c r="D781" s="0">
+        <v>4</v>
+      </c>
+      <c r="E781" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F781" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G781" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="782">
+      <c r="A782" s="0">
+        <v>849</v>
+      </c>
+      <c r="B782" s="0" t="inlineStr">
+        <is>
+          <t>AG2062</t>
+        </is>
+      </c>
+      <c r="C782" s="0">
+        <v>7</v>
+      </c>
+      <c r="D782" s="0">
+        <v>1</v>
+      </c>
+      <c r="E782" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F782" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G782" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="783">
+      <c r="A783" s="0">
+        <v>850</v>
+      </c>
+      <c r="B783" s="0" t="inlineStr">
+        <is>
+          <t>AG2063</t>
+        </is>
+      </c>
+      <c r="C783" s="0">
+        <v>3</v>
+      </c>
+      <c r="E783" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F783" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G783" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="784">
+      <c r="A784" s="0">
+        <v>851</v>
+      </c>
+      <c r="B784" s="0" t="inlineStr">
+        <is>
+          <t>AG2063</t>
+        </is>
+      </c>
+      <c r="C784" s="0">
+        <v>11</v>
+      </c>
+      <c r="D784" s="0">
+        <v>3</v>
+      </c>
+      <c r="E784" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F784" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G784" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="785">
+      <c r="A785" s="0">
+        <v>852</v>
+      </c>
+      <c r="B785" s="0" t="inlineStr">
+        <is>
+          <t>AG2063</t>
+        </is>
+      </c>
+      <c r="C785" s="0">
+        <v>24</v>
+      </c>
+      <c r="D785" s="0">
+        <v>5</v>
+      </c>
+      <c r="E785" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F785" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G785" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="786">
+      <c r="A786" s="0">
+        <v>853</v>
+      </c>
+      <c r="B786" s="0" t="inlineStr">
+        <is>
+          <t>AG2063</t>
+        </is>
+      </c>
+      <c r="C786" s="0">
+        <v>10</v>
+      </c>
+      <c r="D786" s="0">
+        <v>2</v>
+      </c>
+      <c r="E786" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F786" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G786" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="787">
+      <c r="A787" s="0">
+        <v>854</v>
+      </c>
+      <c r="B787" s="0" t="inlineStr">
+        <is>
+          <t>AG2063</t>
+        </is>
+      </c>
+      <c r="C787" s="0">
+        <v>19</v>
+      </c>
+      <c r="D787" s="0">
+        <v>4</v>
+      </c>
+      <c r="E787" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F787" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G787" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="788">
+      <c r="A788" s="0">
+        <v>855</v>
+      </c>
+      <c r="B788" s="0" t="inlineStr">
+        <is>
+          <t>AG2063</t>
+        </is>
+      </c>
+      <c r="C788" s="0">
+        <v>139</v>
+      </c>
+      <c r="D788" s="0">
+        <v>8</v>
+      </c>
+      <c r="E788" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F788" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G788" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="789">
+      <c r="A789" s="0">
+        <v>856</v>
+      </c>
+      <c r="B789" s="0" t="inlineStr">
+        <is>
+          <t>AG2063</t>
+        </is>
+      </c>
+      <c r="C789" s="0">
+        <v>7</v>
+      </c>
+      <c r="D789" s="0">
+        <v>1</v>
+      </c>
+      <c r="E789" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F789" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G789" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="790">
+      <c r="A790" s="0">
+        <v>857</v>
+      </c>
+      <c r="B790" s="0" t="inlineStr">
+        <is>
+          <t>AG2067</t>
+        </is>
+      </c>
+      <c r="C790" s="0">
+        <v>7</v>
+      </c>
+      <c r="D790" s="0">
+        <v>1</v>
+      </c>
+      <c r="E790" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F790" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G790" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="791">
+      <c r="A791" s="0">
+        <v>858</v>
+      </c>
+      <c r="B791" s="0" t="inlineStr">
+        <is>
+          <t>AG2068</t>
+        </is>
+      </c>
+      <c r="C791" s="0">
+        <v>140</v>
+      </c>
+      <c r="D791" s="0">
+        <v>2</v>
+      </c>
+      <c r="E791" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F791" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G791" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="792">
+      <c r="A792" s="0">
+        <v>859</v>
+      </c>
+      <c r="B792" s="0" t="inlineStr">
+        <is>
+          <t>AG2068</t>
+        </is>
+      </c>
+      <c r="C792" s="0">
+        <v>7</v>
+      </c>
+      <c r="D792" s="0">
+        <v>1</v>
+      </c>
+      <c r="E792" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F792" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G792" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="793">
+      <c r="A793" s="0">
+        <v>860</v>
+      </c>
+      <c r="B793" s="0" t="inlineStr">
+        <is>
+          <t>AG2069</t>
+        </is>
+      </c>
+      <c r="C793" s="0">
+        <v>133</v>
+      </c>
+      <c r="D793" s="0">
+        <v>2</v>
+      </c>
+      <c r="E793" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F793" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G793" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="794">
+      <c r="A794" s="0">
+        <v>861</v>
+      </c>
+      <c r="B794" s="0" t="inlineStr">
+        <is>
+          <t>AG2069</t>
+        </is>
+      </c>
+      <c r="C794" s="0">
+        <v>135</v>
+      </c>
+      <c r="D794" s="0">
+        <v>3</v>
+      </c>
+      <c r="E794" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F794" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G794" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="795">
+      <c r="A795" s="0">
+        <v>862</v>
+      </c>
+      <c r="B795" s="0" t="inlineStr">
+        <is>
+          <t>AG2069</t>
+        </is>
+      </c>
+      <c r="C795" s="0">
+        <v>7</v>
+      </c>
+      <c r="D795" s="0">
+        <v>1</v>
+      </c>
+      <c r="E795" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F795" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G795" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="796">
+      <c r="A796" s="0">
+        <v>863</v>
+      </c>
+      <c r="B796" s="0" t="inlineStr">
+        <is>
+          <t>AG2070</t>
+        </is>
+      </c>
+      <c r="C796" s="0">
+        <v>139</v>
+      </c>
+      <c r="D796" s="0">
+        <v>2</v>
+      </c>
+      <c r="E796" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F796" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G796" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="797">
+      <c r="A797" s="0">
+        <v>864</v>
+      </c>
+      <c r="B797" s="0" t="inlineStr">
+        <is>
+          <t>AG2070</t>
+        </is>
+      </c>
+      <c r="C797" s="0">
+        <v>7</v>
+      </c>
+      <c r="D797" s="0">
+        <v>1</v>
+      </c>
+      <c r="E797" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F797" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G797" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="798">
+      <c r="A798" s="0">
+        <v>865</v>
+      </c>
+      <c r="B798" s="0" t="inlineStr">
+        <is>
+          <t>AG2071</t>
+        </is>
+      </c>
+      <c r="C798" s="0">
+        <v>138</v>
+      </c>
+      <c r="D798" s="0">
+        <v>2</v>
+      </c>
+      <c r="E798" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F798" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G798" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="799">
+      <c r="A799" s="0">
+        <v>866</v>
+      </c>
+      <c r="B799" s="0" t="inlineStr">
+        <is>
+          <t>AG2071</t>
+        </is>
+      </c>
+      <c r="C799" s="0">
+        <v>7</v>
+      </c>
+      <c r="D799" s="0">
+        <v>1</v>
+      </c>
+      <c r="E799" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F799" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G799" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="800">
+      <c r="A800" s="0">
+        <v>867</v>
+      </c>
+      <c r="B800" s="0" t="inlineStr">
+        <is>
+          <t>AG2072</t>
+        </is>
+      </c>
+      <c r="C800" s="0">
+        <v>143</v>
+      </c>
+      <c r="D800" s="0">
+        <v>2</v>
+      </c>
+      <c r="E800" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F800" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G800" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="801">
+      <c r="A801" s="0">
+        <v>868</v>
+      </c>
+      <c r="B801" s="0" t="inlineStr">
+        <is>
+          <t>AG2072</t>
+        </is>
+      </c>
+      <c r="C801" s="0">
+        <v>7</v>
+      </c>
+      <c r="D801" s="0">
+        <v>1</v>
+      </c>
+      <c r="E801" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F801" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G801" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="802">
+      <c r="A802" s="0">
+        <v>869</v>
+      </c>
+      <c r="B802" s="0" t="inlineStr">
+        <is>
+          <t>AG2073</t>
+        </is>
+      </c>
+      <c r="C802" s="0">
+        <v>136</v>
+      </c>
+      <c r="D802" s="0">
+        <v>2</v>
+      </c>
+      <c r="E802" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F802" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G802" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="803">
+      <c r="A803" s="0">
+        <v>870</v>
+      </c>
+      <c r="B803" s="0" t="inlineStr">
+        <is>
+          <t>AG2073</t>
+        </is>
+      </c>
+      <c r="C803" s="0">
+        <v>7</v>
+      </c>
+      <c r="D803" s="0">
+        <v>1</v>
+      </c>
+      <c r="E803" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F803" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G803" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="804">
+      <c r="A804" s="0">
+        <v>871</v>
+      </c>
+      <c r="B804" s="0" t="inlineStr">
+        <is>
+          <t>AG553</t>
+        </is>
+      </c>
+      <c r="C804" s="0">
+        <v>3</v>
+      </c>
+      <c r="E804" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F804" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G804" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="805">
+      <c r="A805" s="0">
+        <v>872</v>
+      </c>
+      <c r="B805" s="0" t="inlineStr">
+        <is>
+          <t>AG553</t>
+        </is>
+      </c>
+      <c r="C805" s="0">
+        <v>11</v>
+      </c>
+      <c r="D805" s="0">
+        <v>3</v>
+      </c>
+      <c r="E805" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F805" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G805" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="806">
+      <c r="A806" s="0">
+        <v>873</v>
+      </c>
+      <c r="B806" s="0" t="inlineStr">
+        <is>
+          <t>AG553</t>
+        </is>
+      </c>
+      <c r="C806" s="0">
+        <v>24</v>
+      </c>
+      <c r="D806" s="0">
+        <v>5</v>
+      </c>
+      <c r="E806" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F806" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G806" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="807">
+      <c r="A807" s="0">
+        <v>874</v>
+      </c>
+      <c r="B807" s="0" t="inlineStr">
+        <is>
+          <t>AG553</t>
+        </is>
+      </c>
+      <c r="C807" s="0">
+        <v>10</v>
+      </c>
+      <c r="D807" s="0">
+        <v>2</v>
+      </c>
+      <c r="E807" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F807" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G807" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="808">
+      <c r="A808" s="0">
+        <v>875</v>
+      </c>
+      <c r="B808" s="0" t="inlineStr">
+        <is>
+          <t>AG553</t>
+        </is>
+      </c>
+      <c r="C808" s="0">
+        <v>19</v>
+      </c>
+      <c r="D808" s="0">
+        <v>4</v>
+      </c>
+      <c r="E808" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F808" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G808" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="809">
+      <c r="A809" s="0">
+        <v>876</v>
+      </c>
+      <c r="B809" s="0" t="inlineStr">
+        <is>
+          <t>AG553</t>
+        </is>
+      </c>
+      <c r="C809" s="0">
+        <v>7</v>
+      </c>
+      <c r="D809" s="0">
+        <v>1</v>
+      </c>
+      <c r="E809" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F809" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G809" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="810">
+      <c r="A810" s="0">
+        <v>877</v>
+      </c>
+      <c r="B810" s="0" t="inlineStr">
+        <is>
+          <t>AG599</t>
+        </is>
+      </c>
+      <c r="C810" s="0">
+        <v>3</v>
+      </c>
+      <c r="E810" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F810" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G810" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="811">
+      <c r="A811" s="0">
+        <v>878</v>
+      </c>
+      <c r="B811" s="0" t="inlineStr">
+        <is>
+          <t>AG599</t>
+        </is>
+      </c>
+      <c r="C811" s="0">
+        <v>11</v>
+      </c>
+      <c r="D811" s="0">
+        <v>3</v>
+      </c>
+      <c r="E811" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F811" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G811" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="812">
+      <c r="A812" s="0">
+        <v>879</v>
+      </c>
+      <c r="B812" s="0" t="inlineStr">
+        <is>
+          <t>AG599</t>
+        </is>
+      </c>
+      <c r="C812" s="0">
+        <v>24</v>
+      </c>
+      <c r="D812" s="0">
+        <v>5</v>
+      </c>
+      <c r="E812" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F812" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G812" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="813">
+      <c r="A813" s="0">
+        <v>880</v>
+      </c>
+      <c r="B813" s="0" t="inlineStr">
+        <is>
+          <t>AG599</t>
+        </is>
+      </c>
+      <c r="C813" s="0">
+        <v>10</v>
+      </c>
+      <c r="D813" s="0">
+        <v>2</v>
+      </c>
+      <c r="E813" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F813" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G813" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="814">
+      <c r="A814" s="0">
+        <v>881</v>
+      </c>
+      <c r="B814" s="0" t="inlineStr">
+        <is>
+          <t>AG599</t>
+        </is>
+      </c>
+      <c r="C814" s="0">
+        <v>19</v>
+      </c>
+      <c r="D814" s="0">
+        <v>4</v>
+      </c>
+      <c r="E814" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F814" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G814" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="815">
+      <c r="A815" s="0">
+        <v>882</v>
+      </c>
+      <c r="B815" s="0" t="inlineStr">
+        <is>
+          <t>AG599</t>
+        </is>
+      </c>
+      <c r="C815" s="0">
+        <v>7</v>
+      </c>
+      <c r="D815" s="0">
+        <v>1</v>
+      </c>
+      <c r="E815" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F815" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G815" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="816">
+      <c r="A816" s="0">
+        <v>883</v>
+      </c>
+      <c r="B816" s="0" t="inlineStr">
+        <is>
+          <t>AG600</t>
+        </is>
+      </c>
+      <c r="C816" s="0">
+        <v>3</v>
+      </c>
+      <c r="E816" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F816" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G816" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="817">
+      <c r="A817" s="0">
+        <v>884</v>
+      </c>
+      <c r="B817" s="0" t="inlineStr">
+        <is>
+          <t>AG600</t>
+        </is>
+      </c>
+      <c r="C817" s="0">
+        <v>11</v>
+      </c>
+      <c r="D817" s="0">
+        <v>3</v>
+      </c>
+      <c r="E817" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F817" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G817" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="818">
+      <c r="A818" s="0">
+        <v>885</v>
+      </c>
+      <c r="B818" s="0" t="inlineStr">
+        <is>
+          <t>AG600</t>
+        </is>
+      </c>
+      <c r="C818" s="0">
+        <v>24</v>
+      </c>
+      <c r="D818" s="0">
+        <v>5</v>
+      </c>
+      <c r="E818" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F818" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G818" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="819">
+      <c r="A819" s="0">
+        <v>886</v>
+      </c>
+      <c r="B819" s="0" t="inlineStr">
+        <is>
+          <t>AG600</t>
+        </is>
+      </c>
+      <c r="C819" s="0">
+        <v>10</v>
+      </c>
+      <c r="D819" s="0">
+        <v>2</v>
+      </c>
+      <c r="E819" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F819" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G819" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="820">
+      <c r="A820" s="0">
+        <v>887</v>
+      </c>
+      <c r="B820" s="0" t="inlineStr">
+        <is>
+          <t>AG600</t>
+        </is>
+      </c>
+      <c r="C820" s="0">
+        <v>19</v>
+      </c>
+      <c r="D820" s="0">
+        <v>4</v>
+      </c>
+      <c r="E820" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F820" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G820" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="821">
+      <c r="A821" s="0">
+        <v>888</v>
+      </c>
+      <c r="B821" s="0" t="inlineStr">
+        <is>
+          <t>AG600</t>
+        </is>
+      </c>
+      <c r="C821" s="0">
+        <v>7</v>
+      </c>
+      <c r="D821" s="0">
+        <v>1</v>
+      </c>
+      <c r="E821" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F821" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G821" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="822">
+      <c r="A822" s="0">
+        <v>889</v>
+      </c>
+      <c r="B822" s="0" t="inlineStr">
+        <is>
+          <t>AG601</t>
+        </is>
+      </c>
+      <c r="C822" s="0">
+        <v>3</v>
+      </c>
+      <c r="E822" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F822" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G822" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="823">
+      <c r="A823" s="0">
+        <v>890</v>
+      </c>
+      <c r="B823" s="0" t="inlineStr">
+        <is>
+          <t>AG601</t>
+        </is>
+      </c>
+      <c r="C823" s="0">
+        <v>11</v>
+      </c>
+      <c r="D823" s="0">
+        <v>3</v>
+      </c>
+      <c r="E823" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F823" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G823" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="824">
+      <c r="A824" s="0">
+        <v>891</v>
+      </c>
+      <c r="B824" s="0" t="inlineStr">
+        <is>
+          <t>AG601</t>
+        </is>
+      </c>
+      <c r="C824" s="0">
+        <v>24</v>
+      </c>
+      <c r="D824" s="0">
+        <v>5</v>
+      </c>
+      <c r="E824" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F824" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G824" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="825">
+      <c r="A825" s="0">
+        <v>892</v>
+      </c>
+      <c r="B825" s="0" t="inlineStr">
+        <is>
+          <t>AG601</t>
+        </is>
+      </c>
+      <c r="C825" s="0">
+        <v>10</v>
+      </c>
+      <c r="D825" s="0">
+        <v>2</v>
+      </c>
+      <c r="E825" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F825" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G825" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="826">
+      <c r="A826" s="0">
+        <v>893</v>
+      </c>
+      <c r="B826" s="0" t="inlineStr">
+        <is>
+          <t>AG601</t>
+        </is>
+      </c>
+      <c r="C826" s="0">
+        <v>19</v>
+      </c>
+      <c r="D826" s="0">
+        <v>4</v>
+      </c>
+      <c r="E826" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F826" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G826" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="827">
+      <c r="A827" s="0">
+        <v>894</v>
+      </c>
+      <c r="B827" s="0" t="inlineStr">
+        <is>
+          <t>AG601</t>
+        </is>
+      </c>
+      <c r="C827" s="0">
+        <v>7</v>
+      </c>
+      <c r="D827" s="0">
+        <v>1</v>
+      </c>
+      <c r="E827" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F827" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G827" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="828">
+      <c r="A828" s="0">
+        <v>895</v>
+      </c>
+      <c r="B828" s="0" t="inlineStr">
+        <is>
+          <t>AG602</t>
+        </is>
+      </c>
+      <c r="C828" s="0">
+        <v>3</v>
+      </c>
+      <c r="E828" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F828" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G828" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="829">
+      <c r="A829" s="0">
+        <v>901</v>
+      </c>
+      <c r="B829" s="0" t="inlineStr">
+        <is>
+          <t>AG603</t>
+        </is>
+      </c>
+      <c r="C829" s="0">
+        <v>3</v>
+      </c>
+      <c r="E829" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F829" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G829" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="830">
+      <c r="A830" s="0">
+        <v>902</v>
+      </c>
+      <c r="B830" s="0" t="inlineStr">
+        <is>
+          <t>AG603</t>
+        </is>
+      </c>
+      <c r="C830" s="0">
+        <v>11</v>
+      </c>
+      <c r="D830" s="0">
+        <v>3</v>
+      </c>
+      <c r="E830" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F830" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G830" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="831">
+      <c r="A831" s="0">
+        <v>903</v>
+      </c>
+      <c r="B831" s="0" t="inlineStr">
+        <is>
+          <t>AG603</t>
+        </is>
+      </c>
+      <c r="C831" s="0">
+        <v>24</v>
+      </c>
+      <c r="D831" s="0">
+        <v>5</v>
+      </c>
+      <c r="E831" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F831" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G831" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="832">
+      <c r="A832" s="0">
+        <v>904</v>
+      </c>
+      <c r="B832" s="0" t="inlineStr">
+        <is>
+          <t>AG603</t>
+        </is>
+      </c>
+      <c r="C832" s="0">
+        <v>10</v>
+      </c>
+      <c r="D832" s="0">
+        <v>2</v>
+      </c>
+      <c r="E832" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F832" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G832" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="833">
+      <c r="A833" s="0">
+        <v>905</v>
+      </c>
+      <c r="B833" s="0" t="inlineStr">
+        <is>
+          <t>AG603</t>
+        </is>
+      </c>
+      <c r="C833" s="0">
+        <v>19</v>
+      </c>
+      <c r="D833" s="0">
+        <v>4</v>
+      </c>
+      <c r="E833" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F833" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G833" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="834">
+      <c r="A834" s="0">
+        <v>906</v>
+      </c>
+      <c r="B834" s="0" t="inlineStr">
+        <is>
+          <t>AG603</t>
+        </is>
+      </c>
+      <c r="C834" s="0">
+        <v>7</v>
+      </c>
+      <c r="D834" s="0">
+        <v>1</v>
+      </c>
+      <c r="E834" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F834" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G834" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="835">
+      <c r="A835" s="0">
+        <v>907</v>
+      </c>
+      <c r="B835" s="0" t="inlineStr">
+        <is>
+          <t>AG604</t>
+        </is>
+      </c>
+      <c r="C835" s="0">
+        <v>3</v>
+      </c>
+      <c r="E835" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F835" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G835" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="836">
+      <c r="A836" s="0">
+        <v>908</v>
+      </c>
+      <c r="B836" s="0" t="inlineStr">
+        <is>
+          <t>AG604</t>
+        </is>
+      </c>
+      <c r="C836" s="0">
+        <v>24</v>
+      </c>
+      <c r="D836" s="0">
+        <v>5</v>
+      </c>
+      <c r="E836" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F836" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G836" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="837">
+      <c r="A837" s="0">
+        <v>909</v>
+      </c>
+      <c r="B837" s="0" t="inlineStr">
+        <is>
+          <t>AG604</t>
+        </is>
+      </c>
+      <c r="C837" s="0">
+        <v>10</v>
+      </c>
+      <c r="D837" s="0">
+        <v>2</v>
+      </c>
+      <c r="E837" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F837" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G837" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="838">
+      <c r="A838" s="0">
+        <v>910</v>
+      </c>
+      <c r="B838" s="0" t="inlineStr">
+        <is>
+          <t>AG604</t>
+        </is>
+      </c>
+      <c r="C838" s="0">
+        <v>19</v>
+      </c>
+      <c r="D838" s="0">
+        <v>4</v>
+      </c>
+      <c r="E838" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F838" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G838" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="839">
+      <c r="A839" s="0">
+        <v>911</v>
+      </c>
+      <c r="B839" s="0" t="inlineStr">
+        <is>
+          <t>AG604</t>
+        </is>
+      </c>
+      <c r="C839" s="0">
+        <v>7</v>
+      </c>
+      <c r="D839" s="0">
+        <v>1</v>
+      </c>
+      <c r="E839" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F839" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G839" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="840">
+      <c r="A840" s="0">
+        <v>912</v>
+      </c>
+      <c r="B840" s="0" t="inlineStr">
+        <is>
+          <t>AG605</t>
+        </is>
+      </c>
+      <c r="C840" s="0">
+        <v>3</v>
+      </c>
+      <c r="E840" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F840" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G840" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="841">
+      <c r="A841" s="0">
+        <v>913</v>
+      </c>
+      <c r="B841" s="0" t="inlineStr">
+        <is>
+          <t>AG605</t>
+        </is>
+      </c>
+      <c r="C841" s="0">
+        <v>11</v>
+      </c>
+      <c r="D841" s="0">
+        <v>3</v>
+      </c>
+      <c r="E841" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F841" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G841" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="842">
+      <c r="A842" s="0">
+        <v>914</v>
+      </c>
+      <c r="B842" s="0" t="inlineStr">
+        <is>
+          <t>AG605</t>
+        </is>
+      </c>
+      <c r="C842" s="0">
+        <v>24</v>
+      </c>
+      <c r="D842" s="0">
+        <v>5</v>
+      </c>
+      <c r="E842" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F842" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G842" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="843">
+      <c r="A843" s="0">
+        <v>915</v>
+      </c>
+      <c r="B843" s="0" t="inlineStr">
+        <is>
+          <t>AG605</t>
+        </is>
+      </c>
+      <c r="C843" s="0">
+        <v>10</v>
+      </c>
+      <c r="D843" s="0">
+        <v>2</v>
+      </c>
+      <c r="E843" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F843" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G843" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="844">
+      <c r="A844" s="0">
+        <v>916</v>
+      </c>
+      <c r="B844" s="0" t="inlineStr">
+        <is>
+          <t>AG605</t>
+        </is>
+      </c>
+      <c r="C844" s="0">
+        <v>19</v>
+      </c>
+      <c r="D844" s="0">
+        <v>4</v>
+      </c>
+      <c r="E844" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F844" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G844" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="845">
+      <c r="A845" s="0">
+        <v>917</v>
+      </c>
+      <c r="B845" s="0" t="inlineStr">
+        <is>
+          <t>AG605</t>
+        </is>
+      </c>
+      <c r="C845" s="0">
+        <v>7</v>
+      </c>
+      <c r="D845" s="0">
+        <v>1</v>
+      </c>
+      <c r="E845" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F845" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G845" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="846">
+      <c r="A846" s="0">
+        <v>918</v>
+      </c>
+      <c r="B846" s="0" t="inlineStr">
+        <is>
+          <t>AG606</t>
+        </is>
+      </c>
+      <c r="C846" s="0">
+        <v>3</v>
+      </c>
+      <c r="E846" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F846" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G846" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="847">
+      <c r="A847" s="0">
+        <v>919</v>
+      </c>
+      <c r="B847" s="0" t="inlineStr">
+        <is>
+          <t>AG606</t>
+        </is>
+      </c>
+      <c r="C847" s="0">
+        <v>11</v>
+      </c>
+      <c r="D847" s="0">
+        <v>3</v>
+      </c>
+      <c r="E847" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F847" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G847" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="848">
+      <c r="A848" s="0">
+        <v>920</v>
+      </c>
+      <c r="B848" s="0" t="inlineStr">
+        <is>
+          <t>AG606</t>
+        </is>
+      </c>
+      <c r="C848" s="0">
+        <v>24</v>
+      </c>
+      <c r="D848" s="0">
+        <v>5</v>
+      </c>
+      <c r="E848" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F848" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G848" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="849">
+      <c r="A849" s="0">
+        <v>921</v>
+      </c>
+      <c r="B849" s="0" t="inlineStr">
+        <is>
+          <t>AG606</t>
+        </is>
+      </c>
+      <c r="C849" s="0">
+        <v>10</v>
+      </c>
+      <c r="D849" s="0">
+        <v>2</v>
+      </c>
+      <c r="E849" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F849" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G849" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="850">
+      <c r="A850" s="0">
+        <v>922</v>
+      </c>
+      <c r="B850" s="0" t="inlineStr">
+        <is>
+          <t>AG606</t>
+        </is>
+      </c>
+      <c r="C850" s="0">
+        <v>19</v>
+      </c>
+      <c r="D850" s="0">
+        <v>4</v>
+      </c>
+      <c r="E850" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F850" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G850" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="851">
+      <c r="A851" s="0">
+        <v>923</v>
+      </c>
+      <c r="B851" s="0" t="inlineStr">
+        <is>
+          <t>AG606</t>
+        </is>
+      </c>
+      <c r="C851" s="0">
+        <v>7</v>
+      </c>
+      <c r="D851" s="0">
+        <v>1</v>
+      </c>
+      <c r="E851" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F851" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G851" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="852">
+      <c r="A852" s="0">
+        <v>924</v>
+      </c>
+      <c r="B852" s="0" t="inlineStr">
+        <is>
+          <t>AG607</t>
+        </is>
+      </c>
+      <c r="C852" s="0">
+        <v>3</v>
+      </c>
+      <c r="E852" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F852" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G852" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="853">
+      <c r="A853" s="0">
+        <v>925</v>
+      </c>
+      <c r="B853" s="0" t="inlineStr">
+        <is>
+          <t>AG607</t>
+        </is>
+      </c>
+      <c r="C853" s="0">
+        <v>11</v>
+      </c>
+      <c r="D853" s="0">
+        <v>3</v>
+      </c>
+      <c r="E853" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F853" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G853" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="854">
+      <c r="A854" s="0">
+        <v>926</v>
+      </c>
+      <c r="B854" s="0" t="inlineStr">
+        <is>
+          <t>AG607</t>
+        </is>
+      </c>
+      <c r="C854" s="0">
+        <v>24</v>
+      </c>
+      <c r="D854" s="0">
+        <v>5</v>
+      </c>
+      <c r="E854" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F854" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G854" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="855">
+      <c r="A855" s="0">
+        <v>927</v>
+      </c>
+      <c r="B855" s="0" t="inlineStr">
+        <is>
+          <t>AG607</t>
+        </is>
+      </c>
+      <c r="C855" s="0">
+        <v>10</v>
+      </c>
+      <c r="D855" s="0">
+        <v>2</v>
+      </c>
+      <c r="E855" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F855" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G855" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="856">
+      <c r="A856" s="0">
+        <v>928</v>
+      </c>
+      <c r="B856" s="0" t="inlineStr">
+        <is>
+          <t>AG607</t>
+        </is>
+      </c>
+      <c r="C856" s="0">
+        <v>19</v>
+      </c>
+      <c r="D856" s="0">
+        <v>4</v>
+      </c>
+      <c r="E856" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F856" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G856" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="857">
+      <c r="A857" s="0">
+        <v>929</v>
+      </c>
+      <c r="B857" s="0" t="inlineStr">
+        <is>
+          <t>AG607</t>
+        </is>
+      </c>
+      <c r="C857" s="0">
+        <v>7</v>
+      </c>
+      <c r="D857" s="0">
+        <v>1</v>
+      </c>
+      <c r="E857" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F857" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G857" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="858">
+      <c r="A858" s="0">
+        <v>930</v>
+      </c>
+      <c r="B858" s="0" t="inlineStr">
+        <is>
+          <t>AG608</t>
+        </is>
+      </c>
+      <c r="C858" s="0">
+        <v>11</v>
+      </c>
+      <c r="D858" s="0">
+        <v>3</v>
+      </c>
+      <c r="E858" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F858" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G858" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="859">
+      <c r="A859" s="0">
+        <v>931</v>
+      </c>
+      <c r="B859" s="0" t="inlineStr">
+        <is>
+          <t>AG608</t>
+        </is>
+      </c>
+      <c r="C859" s="0">
+        <v>144</v>
+      </c>
+      <c r="D859" s="0">
+        <v>2</v>
+      </c>
+      <c r="E859" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F859" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G859" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="860">
+      <c r="A860" s="0">
+        <v>932</v>
+      </c>
+      <c r="B860" s="0" t="inlineStr">
+        <is>
+          <t>AG609</t>
+        </is>
+      </c>
+      <c r="C860" s="0">
+        <v>11</v>
+      </c>
+      <c r="D860" s="0">
+        <v>3</v>
+      </c>
+      <c r="E860" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F860" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G860" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="861">
+      <c r="A861" s="0">
+        <v>933</v>
+      </c>
+      <c r="B861" s="0" t="inlineStr">
+        <is>
+          <t>AG609</t>
+        </is>
+      </c>
+      <c r="C861" s="0">
+        <v>144</v>
+      </c>
+      <c r="D861" s="0">
+        <v>2</v>
+      </c>
+      <c r="E861" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F861" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G861" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="862">
+      <c r="A862" s="0">
+        <v>934</v>
+      </c>
+      <c r="B862" s="0" t="inlineStr">
+        <is>
+          <t>AG610</t>
+        </is>
+      </c>
+      <c r="C862" s="0">
+        <v>11</v>
+      </c>
+      <c r="D862" s="0">
+        <v>3</v>
+      </c>
+      <c r="E862" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F862" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G862" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="863">
+      <c r="A863" s="0">
+        <v>935</v>
+      </c>
+      <c r="B863" s="0" t="inlineStr">
+        <is>
+          <t>AG610</t>
+        </is>
+      </c>
+      <c r="C863" s="0">
+        <v>144</v>
+      </c>
+      <c r="D863" s="0">
+        <v>2</v>
+      </c>
+      <c r="E863" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F863" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G863" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="864">
+      <c r="A864" s="0">
+        <v>936</v>
+      </c>
+      <c r="B864" s="0" t="inlineStr">
+        <is>
+          <t>AG611</t>
+        </is>
+      </c>
+      <c r="C864" s="0">
+        <v>11</v>
+      </c>
+      <c r="D864" s="0">
+        <v>3</v>
+      </c>
+      <c r="E864" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F864" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G864" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="865">
+      <c r="A865" s="0">
+        <v>937</v>
+      </c>
+      <c r="B865" s="0" t="inlineStr">
+        <is>
+          <t>AG611</t>
+        </is>
+      </c>
+      <c r="C865" s="0">
+        <v>144</v>
+      </c>
+      <c r="D865" s="0">
+        <v>2</v>
+      </c>
+      <c r="E865" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F865" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G865" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="866">
+      <c r="A866" s="0">
+        <v>938</v>
+      </c>
+      <c r="B866" s="0" t="inlineStr">
+        <is>
+          <t>AG612</t>
+        </is>
+      </c>
+      <c r="C866" s="0">
+        <v>11</v>
+      </c>
+      <c r="D866" s="0">
+        <v>3</v>
+      </c>
+      <c r="E866" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F866" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G866" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="867">
+      <c r="A867" s="0">
+        <v>939</v>
+      </c>
+      <c r="B867" s="0" t="inlineStr">
+        <is>
+          <t>AG612</t>
+        </is>
+      </c>
+      <c r="C867" s="0">
+        <v>144</v>
+      </c>
+      <c r="D867" s="0">
+        <v>2</v>
+      </c>
+      <c r="E867" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F867" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G867" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="868">
+      <c r="A868" s="0">
+        <v>940</v>
+      </c>
+      <c r="B868" s="0" t="inlineStr">
+        <is>
+          <t>AG613</t>
+        </is>
+      </c>
+      <c r="C868" s="0">
+        <v>11</v>
+      </c>
+      <c r="D868" s="0">
+        <v>3</v>
+      </c>
+      <c r="E868" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F868" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G868" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="869">
+      <c r="A869" s="0">
+        <v>941</v>
+      </c>
+      <c r="B869" s="0" t="inlineStr">
+        <is>
+          <t>AG613</t>
+        </is>
+      </c>
+      <c r="C869" s="0">
+        <v>144</v>
+      </c>
+      <c r="D869" s="0">
+        <v>2</v>
+      </c>
+      <c r="E869" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F869" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G869" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="870">
+      <c r="A870" s="0">
+        <v>942</v>
+      </c>
+      <c r="B870" s="0" t="inlineStr">
+        <is>
+          <t>AG614</t>
+        </is>
+      </c>
+      <c r="C870" s="0">
+        <v>11</v>
+      </c>
+      <c r="D870" s="0">
+        <v>3</v>
+      </c>
+      <c r="E870" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F870" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G870" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="871">
+      <c r="A871" s="0">
+        <v>943</v>
+      </c>
+      <c r="B871" s="0" t="inlineStr">
+        <is>
+          <t>AG614</t>
+        </is>
+      </c>
+      <c r="C871" s="0">
+        <v>144</v>
+      </c>
+      <c r="D871" s="0">
+        <v>2</v>
+      </c>
+      <c r="E871" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F871" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G871" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="872">
+      <c r="A872" s="0">
+        <v>944</v>
+      </c>
+      <c r="B872" s="0" t="inlineStr">
+        <is>
+          <t>AG615</t>
+        </is>
+      </c>
+      <c r="C872" s="0">
+        <v>11</v>
+      </c>
+      <c r="D872" s="0">
+        <v>3</v>
+      </c>
+      <c r="E872" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F872" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G872" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="873">
+      <c r="A873" s="0">
+        <v>945</v>
+      </c>
+      <c r="B873" s="0" t="inlineStr">
+        <is>
+          <t>AG615</t>
+        </is>
+      </c>
+      <c r="C873" s="0">
+        <v>144</v>
+      </c>
+      <c r="D873" s="0">
+        <v>2</v>
+      </c>
+      <c r="E873" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F873" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G873" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="874">
+      <c r="A874" s="0">
+        <v>946</v>
+      </c>
+      <c r="B874" s="0" t="inlineStr">
+        <is>
+          <t>AG929</t>
+        </is>
+      </c>
+      <c r="C874" s="0">
+        <v>76</v>
+      </c>
+      <c r="D874" s="0">
+        <v>2</v>
+      </c>
+      <c r="E874" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F874" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G874" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="875">
+      <c r="A875" s="0">
+        <v>947</v>
+      </c>
+      <c r="B875" s="0" t="inlineStr">
+        <is>
+          <t>AG929</t>
+        </is>
+      </c>
+      <c r="C875" s="0">
+        <v>7</v>
+      </c>
+      <c r="D875" s="0">
+        <v>1</v>
+      </c>
+      <c r="E875" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F875" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G875" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="876">
+      <c r="A876" s="0">
+        <v>948</v>
+      </c>
+      <c r="B876" s="0" t="inlineStr">
+        <is>
+          <t>LL1011</t>
+        </is>
+      </c>
+      <c r="C876" s="0">
+        <v>3</v>
+      </c>
+      <c r="E876" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F876" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G876" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="877">
+      <c r="A877" s="0">
+        <v>949</v>
+      </c>
+      <c r="B877" s="0" t="inlineStr">
+        <is>
+          <t>LL1039</t>
+        </is>
+      </c>
+      <c r="C877" s="0">
+        <v>3</v>
+      </c>
+      <c r="E877" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F877" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G877" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="878">
+      <c r="A878" s="0">
+        <v>950</v>
+      </c>
+      <c r="B878" s="0" t="inlineStr">
+        <is>
+          <t>LL1043</t>
+        </is>
+      </c>
+      <c r="C878" s="0">
+        <v>3</v>
+      </c>
+      <c r="E878" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F878" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G878" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="879">
+      <c r="A879" s="0">
+        <v>951</v>
+      </c>
+      <c r="B879" s="0" t="inlineStr">
+        <is>
+          <t>LL1068</t>
+        </is>
+      </c>
+      <c r="C879" s="0">
+        <v>3</v>
+      </c>
+      <c r="E879" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F879" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G879" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="880">
+      <c r="A880" s="0">
+        <v>952</v>
+      </c>
+      <c r="B880" s="0" t="inlineStr">
+        <is>
+          <t>LL1070</t>
+        </is>
+      </c>
+      <c r="C880" s="0">
+        <v>3</v>
+      </c>
+      <c r="E880" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F880" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G880" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="881">
+      <c r="A881" s="0">
+        <v>953</v>
+      </c>
+      <c r="B881" s="0" t="inlineStr">
+        <is>
+          <t>LL1071</t>
+        </is>
+      </c>
+      <c r="C881" s="0">
+        <v>3</v>
+      </c>
+      <c r="E881" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F881" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G881" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="882">
+      <c r="A882" s="0">
+        <v>954</v>
+      </c>
+      <c r="B882" s="0" t="inlineStr">
+        <is>
+          <t>LL1083</t>
+        </is>
+      </c>
+      <c r="C882" s="0">
+        <v>3</v>
+      </c>
+      <c r="E882" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F882" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G882" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="883">
+      <c r="A883" s="0">
+        <v>955</v>
+      </c>
+      <c r="B883" s="0" t="inlineStr">
+        <is>
+          <t>LL1086</t>
+        </is>
+      </c>
+      <c r="C883" s="0">
+        <v>3</v>
+      </c>
+      <c r="E883" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F883" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G883" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="884">
+      <c r="A884" s="0">
+        <v>956</v>
+      </c>
+      <c r="B884" s="0" t="inlineStr">
+        <is>
+          <t>LL1107</t>
+        </is>
+      </c>
+      <c r="C884" s="0">
+        <v>3</v>
+      </c>
+      <c r="E884" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F884" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G884" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="885">
+      <c r="A885" s="0">
+        <v>957</v>
+      </c>
+      <c r="B885" s="0" t="inlineStr">
+        <is>
+          <t>LL1109</t>
+        </is>
+      </c>
+      <c r="C885" s="0">
+        <v>3</v>
+      </c>
+      <c r="E885" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F885" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G885" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="886">
+      <c r="A886" s="0">
+        <v>958</v>
+      </c>
+      <c r="B886" s="0" t="inlineStr">
+        <is>
+          <t>LL1111</t>
+        </is>
+      </c>
+      <c r="C886" s="0">
+        <v>145</v>
+      </c>
+      <c r="E886" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F886" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G886" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="887">
+      <c r="A887" s="0">
+        <v>959</v>
+      </c>
+      <c r="B887" s="0" t="inlineStr">
+        <is>
+          <t>LL1114</t>
+        </is>
+      </c>
+      <c r="C887" s="0">
+        <v>3</v>
+      </c>
+      <c r="E887" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F887" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G887" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="888">
+      <c r="A888" s="0">
+        <v>960</v>
+      </c>
+      <c r="B888" s="0" t="inlineStr">
+        <is>
+          <t>LL1147</t>
+        </is>
+      </c>
+      <c r="C888" s="0">
+        <v>3</v>
+      </c>
+      <c r="E888" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F888" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G888" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="889">
+      <c r="A889" s="0">
+        <v>961</v>
+      </c>
+      <c r="B889" s="0" t="inlineStr">
+        <is>
+          <t>LL1148</t>
+        </is>
+      </c>
+      <c r="C889" s="0">
+        <v>3</v>
+      </c>
+      <c r="E889" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F889" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G889" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="890">
+      <c r="A890" s="0">
+        <v>962</v>
+      </c>
+      <c r="B890" s="0" t="inlineStr">
+        <is>
+          <t>LL1149</t>
+        </is>
+      </c>
+      <c r="C890" s="0">
+        <v>3</v>
+      </c>
+      <c r="E890" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F890" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G890" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="891">
+      <c r="A891" s="0">
+        <v>963</v>
+      </c>
+      <c r="B891" s="0" t="inlineStr">
+        <is>
+          <t>LL1153</t>
+        </is>
+      </c>
+      <c r="C891" s="0">
+        <v>145</v>
+      </c>
+      <c r="E891" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F891" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G891" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="892">
+      <c r="A892" s="0">
+        <v>964</v>
+      </c>
+      <c r="B892" s="0" t="inlineStr">
+        <is>
+          <t>LL1154</t>
+        </is>
+      </c>
+      <c r="C892" s="0">
+        <v>145</v>
+      </c>
+      <c r="E892" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F892" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G892" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="893">
+      <c r="A893" s="0">
+        <v>965</v>
+      </c>
+      <c r="B893" s="0" t="inlineStr">
+        <is>
+          <t>LL1160</t>
+        </is>
+      </c>
+      <c r="C893" s="0">
+        <v>145</v>
+      </c>
+      <c r="E893" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F893" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G893" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="894">
+      <c r="A894" s="0">
+        <v>966</v>
+      </c>
+      <c r="B894" s="0" t="inlineStr">
+        <is>
+          <t>LL1161</t>
+        </is>
+      </c>
+      <c r="C894" s="0">
+        <v>50</v>
+      </c>
+      <c r="E894" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F894" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G894" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="895">
+      <c r="A895" s="0">
+        <v>967</v>
+      </c>
+      <c r="B895" s="0" t="inlineStr">
+        <is>
+          <t>LL1182</t>
+        </is>
+      </c>
+      <c r="C895" s="0">
+        <v>145</v>
+      </c>
+      <c r="E895" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F895" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G895" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="896">
+      <c r="A896" s="0">
+        <v>968</v>
+      </c>
+      <c r="B896" s="0" t="inlineStr">
+        <is>
+          <t>LL1183</t>
+        </is>
+      </c>
+      <c r="C896" s="0">
+        <v>145</v>
+      </c>
+      <c r="E896" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F896" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G896" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="897">
+      <c r="A897" s="0">
+        <v>969</v>
+      </c>
+      <c r="B897" s="0" t="inlineStr">
+        <is>
+          <t>LL1196</t>
+        </is>
+      </c>
+      <c r="C897" s="0">
+        <v>50</v>
+      </c>
+      <c r="E897" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F897" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G897" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="898">
+      <c r="A898" s="0">
+        <v>970</v>
+      </c>
+      <c r="B898" s="0" t="inlineStr">
+        <is>
+          <t>LL1196</t>
+        </is>
+      </c>
+      <c r="C898" s="0">
+        <v>145</v>
+      </c>
+      <c r="E898" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F898" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G898" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="899">
+      <c r="A899" s="0">
+        <v>971</v>
+      </c>
+      <c r="B899" s="0" t="inlineStr">
+        <is>
+          <t>LL1197</t>
+        </is>
+      </c>
+      <c r="C899" s="0">
+        <v>50</v>
+      </c>
+      <c r="E899" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F899" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G899" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="900">
+      <c r="A900" s="0">
+        <v>972</v>
+      </c>
+      <c r="B900" s="0" t="inlineStr">
+        <is>
+          <t>LL1197</t>
+        </is>
+      </c>
+      <c r="C900" s="0">
+        <v>145</v>
+      </c>
+      <c r="E900" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F900" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G900" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="901">
+      <c r="A901" s="0">
+        <v>973</v>
+      </c>
+      <c r="B901" s="0" t="inlineStr">
+        <is>
+          <t>LL1199</t>
+        </is>
+      </c>
+      <c r="C901" s="0">
+        <v>3</v>
+      </c>
+      <c r="E901" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F901" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G901" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="902">
+      <c r="A902" s="0">
+        <v>974</v>
+      </c>
+      <c r="B902" s="0" t="inlineStr">
+        <is>
+          <t>LL1210</t>
+        </is>
+      </c>
+      <c r="C902" s="0">
+        <v>3</v>
+      </c>
+      <c r="E902" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F902" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G902" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="903">
+      <c r="A903" s="0">
+        <v>975</v>
+      </c>
+      <c r="B903" s="0" t="inlineStr">
+        <is>
+          <t>LL1218</t>
+        </is>
+      </c>
+      <c r="C903" s="0">
+        <v>3</v>
+      </c>
+      <c r="E903" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F903" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G903" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="904">
+      <c r="A904" s="0">
+        <v>976</v>
+      </c>
+      <c r="B904" s="0" t="inlineStr">
+        <is>
+          <t>LL1219</t>
+        </is>
+      </c>
+      <c r="C904" s="0">
+        <v>3</v>
+      </c>
+      <c r="E904" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F904" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G904" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="905">
+      <c r="A905" s="0">
+        <v>977</v>
+      </c>
+      <c r="B905" s="0" t="inlineStr">
+        <is>
+          <t>LL1230</t>
+        </is>
+      </c>
+      <c r="C905" s="0">
+        <v>3</v>
+      </c>
+      <c r="E905" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F905" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G905" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="906">
+      <c r="A906" s="0">
+        <v>978</v>
+      </c>
+      <c r="B906" s="0" t="inlineStr">
+        <is>
+          <t>LL1231</t>
+        </is>
+      </c>
+      <c r="C906" s="0">
+        <v>3</v>
+      </c>
+      <c r="E906" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F906" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G906" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="907">
+      <c r="A907" s="0">
+        <v>979</v>
+      </c>
+      <c r="B907" s="0" t="inlineStr">
+        <is>
+          <t>LL1242</t>
+        </is>
+      </c>
+      <c r="C907" s="0">
+        <v>3</v>
+      </c>
+      <c r="E907" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F907" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G907" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="908">
+      <c r="A908" s="0">
+        <v>980</v>
+      </c>
+      <c r="B908" s="0" t="inlineStr">
+        <is>
+          <t>LL1249</t>
+        </is>
+      </c>
+      <c r="C908" s="0">
+        <v>3</v>
+      </c>
+      <c r="E908" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F908" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G908" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="909">
+      <c r="A909" s="0">
+        <v>981</v>
+      </c>
+      <c r="B909" s="0" t="inlineStr">
+        <is>
+          <t>LL1249</t>
+        </is>
+      </c>
+      <c r="C909" s="0">
+        <v>146</v>
+      </c>
+      <c r="E909" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F909" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G909" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="910">
+      <c r="A910" s="0">
+        <v>982</v>
+      </c>
+      <c r="B910" s="0" t="inlineStr">
+        <is>
+          <t>LL1253</t>
+        </is>
+      </c>
+      <c r="C910" s="0">
+        <v>3</v>
+      </c>
+      <c r="E910" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F910" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G910" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="911">
+      <c r="A911" s="0">
+        <v>983</v>
+      </c>
+      <c r="B911" s="0" t="inlineStr">
+        <is>
+          <t>LL1253</t>
+        </is>
+      </c>
+      <c r="C911" s="0">
+        <v>146</v>
+      </c>
+      <c r="E911" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F911" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G911" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="912">
+      <c r="A912" s="0">
+        <v>984</v>
+      </c>
+      <c r="B912" s="0" t="inlineStr">
+        <is>
+          <t>LL1254</t>
+        </is>
+      </c>
+      <c r="C912" s="0">
+        <v>3</v>
+      </c>
+      <c r="E912" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F912" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G912" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="913">
+      <c r="A913" s="0">
+        <v>985</v>
+      </c>
+      <c r="B913" s="0" t="inlineStr">
+        <is>
+          <t>LL1254</t>
+        </is>
+      </c>
+      <c r="C913" s="0">
+        <v>146</v>
+      </c>
+      <c r="E913" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F913" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G913" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="914">
+      <c r="A914" s="0">
+        <v>986</v>
+      </c>
+      <c r="B914" s="0" t="inlineStr">
+        <is>
+          <t>LL1255</t>
+        </is>
+      </c>
+      <c r="C914" s="0">
+        <v>3</v>
+      </c>
+      <c r="E914" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F914" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G914" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="915">
+      <c r="A915" s="0">
+        <v>987</v>
+      </c>
+      <c r="B915" s="0" t="inlineStr">
+        <is>
+          <t>LL1255</t>
+        </is>
+      </c>
+      <c r="C915" s="0">
+        <v>146</v>
+      </c>
+      <c r="E915" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F915" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G915" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="916">
+      <c r="A916" s="0">
+        <v>988</v>
+      </c>
+      <c r="B916" s="0" t="inlineStr">
+        <is>
+          <t>LL1256</t>
+        </is>
+      </c>
+      <c r="C916" s="0">
+        <v>3</v>
+      </c>
+      <c r="E916" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F916" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G916" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="917">
+      <c r="A917" s="0">
+        <v>989</v>
+      </c>
+      <c r="B917" s="0" t="inlineStr">
+        <is>
+          <t>LL1256</t>
+        </is>
+      </c>
+      <c r="C917" s="0">
+        <v>146</v>
+      </c>
+      <c r="E917" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F917" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G917" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="918">
+      <c r="A918" s="0">
+        <v>990</v>
+      </c>
+      <c r="B918" s="0" t="inlineStr">
+        <is>
+          <t>LL1259</t>
+        </is>
+      </c>
+      <c r="C918" s="0">
+        <v>3</v>
+      </c>
+      <c r="E918" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F918" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G918" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="919">
+      <c r="A919" s="0">
+        <v>991</v>
+      </c>
+      <c r="B919" s="0" t="inlineStr">
+        <is>
+          <t>LL1260</t>
+        </is>
+      </c>
+      <c r="C919" s="0">
+        <v>3</v>
+      </c>
+      <c r="E919" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F919" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G919" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="920">
+      <c r="A920" s="0">
+        <v>992</v>
+      </c>
+      <c r="B920" s="0" t="inlineStr">
+        <is>
+          <t>LL1261</t>
+        </is>
+      </c>
+      <c r="C920" s="0">
+        <v>3</v>
+      </c>
+      <c r="E920" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F920" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G920" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="921">
+      <c r="A921" s="0">
+        <v>993</v>
+      </c>
+      <c r="B921" s="0" t="inlineStr">
+        <is>
+          <t>LL1274</t>
+        </is>
+      </c>
+      <c r="C921" s="0">
+        <v>3</v>
+      </c>
+      <c r="E921" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F921" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G921" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="922">
+      <c r="A922" s="0">
+        <v>994</v>
+      </c>
+      <c r="B922" s="0" t="inlineStr">
+        <is>
+          <t>LL1275</t>
+        </is>
+      </c>
+      <c r="C922" s="0">
+        <v>3</v>
+      </c>
+      <c r="E922" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F922" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G922" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="923">
+      <c r="A923" s="0">
+        <v>995</v>
+      </c>
+      <c r="B923" s="0" t="inlineStr">
+        <is>
+          <t>LL1276</t>
+        </is>
+      </c>
+      <c r="C923" s="0">
+        <v>3</v>
+      </c>
+      <c r="E923" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F923" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G923" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="924">
+      <c r="A924" s="0">
+        <v>996</v>
+      </c>
+      <c r="B924" s="0" t="inlineStr">
+        <is>
+          <t>LL1277</t>
+        </is>
+      </c>
+      <c r="C924" s="0">
+        <v>3</v>
+      </c>
+      <c r="E924" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F924" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G924" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="925">
+      <c r="A925" s="0">
+        <v>997</v>
+      </c>
+      <c r="B925" s="0" t="inlineStr">
+        <is>
+          <t>LL1297</t>
+        </is>
+      </c>
+      <c r="C925" s="0">
+        <v>3</v>
+      </c>
+      <c r="E925" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F925" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G925" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="926">
+      <c r="A926" s="0">
+        <v>998</v>
+      </c>
+      <c r="B926" s="0" t="inlineStr">
+        <is>
+          <t>LL1297</t>
+        </is>
+      </c>
+      <c r="C926" s="0">
+        <v>146</v>
+      </c>
+      <c r="E926" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F926" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G926" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="927">
+      <c r="A927" s="0">
+        <v>999</v>
+      </c>
+      <c r="B927" s="0" t="inlineStr">
+        <is>
+          <t>LL1298</t>
+        </is>
+      </c>
+      <c r="C927" s="0">
+        <v>3</v>
+      </c>
+      <c r="E927" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F927" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G927" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="928">
+      <c r="A928" s="0">
+        <v>1000</v>
+      </c>
+      <c r="B928" s="0" t="inlineStr">
+        <is>
+          <t>LL1298</t>
+        </is>
+      </c>
+      <c r="C928" s="0">
+        <v>146</v>
+      </c>
+      <c r="E928" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F928" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G928" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="929">
+      <c r="A929" s="0">
+        <v>1001</v>
+      </c>
+      <c r="B929" s="0" t="inlineStr">
+        <is>
+          <t>LL1380</t>
+        </is>
+      </c>
+      <c r="C929" s="0">
+        <v>3</v>
+      </c>
+      <c r="E929" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F929" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G929" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="930">
+      <c r="A930" s="0">
+        <v>1002</v>
+      </c>
+      <c r="B930" s="0" t="inlineStr">
+        <is>
+          <t>LL1384</t>
+        </is>
+      </c>
+      <c r="C930" s="0">
+        <v>7</v>
+      </c>
+      <c r="D930" s="0">
+        <v>1</v>
+      </c>
+      <c r="E930" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F930" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G930" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="931">
+      <c r="A931" s="0">
+        <v>1003</v>
+      </c>
+      <c r="B931" s="0" t="inlineStr">
+        <is>
+          <t>LL1385</t>
+        </is>
+      </c>
+      <c r="C931" s="0">
+        <v>3</v>
+      </c>
+      <c r="E931" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F931" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G931" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="932">
+      <c r="A932" s="0">
+        <v>1004</v>
+      </c>
+      <c r="B932" s="0" t="inlineStr">
+        <is>
+          <t>LL1385</t>
+        </is>
+      </c>
+      <c r="C932" s="0">
+        <v>5</v>
+      </c>
+      <c r="D932" s="0">
+        <v>3</v>
+      </c>
+      <c r="E932" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F932" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G932" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="933">
+      <c r="A933" s="0">
+        <v>1005</v>
+      </c>
+      <c r="B933" s="0" t="inlineStr">
+        <is>
+          <t>LL1385</t>
+        </is>
+      </c>
+      <c r="C933" s="0">
+        <v>10</v>
+      </c>
+      <c r="D933" s="0">
+        <v>2</v>
+      </c>
+      <c r="E933" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F933" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G933" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="934">
+      <c r="A934" s="0">
+        <v>1006</v>
+      </c>
+      <c r="B934" s="0" t="inlineStr">
+        <is>
+          <t>LL1385</t>
+        </is>
+      </c>
+      <c r="C934" s="0">
+        <v>7</v>
+      </c>
+      <c r="D934" s="0">
+        <v>1</v>
+      </c>
+      <c r="E934" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F934" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G934" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="935">
+      <c r="A935" s="0">
+        <v>1007</v>
+      </c>
+      <c r="B935" s="0" t="inlineStr">
+        <is>
+          <t>LL350</t>
+        </is>
+      </c>
+      <c r="C935" s="0">
+        <v>3</v>
+      </c>
+      <c r="E935" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F935" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G935" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="936">
+      <c r="A936" s="0">
+        <v>1008</v>
+      </c>
+      <c r="B936" s="0" t="inlineStr">
+        <is>
+          <t>AG600</t>
+        </is>
+      </c>
+      <c r="C936" s="0">
+        <v>73</v>
+      </c>
+      <c r="D936" s="0">
+        <v>6</v>
+      </c>
+      <c r="F936" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="937">
+      <c r="A937" s="0">
+        <v>1009</v>
+      </c>
+      <c r="B937" s="0" t="inlineStr">
+        <is>
+          <t>AG601</t>
+        </is>
+      </c>
+      <c r="C937" s="0">
+        <v>73</v>
+      </c>
+      <c r="D937" s="0">
+        <v>6</v>
+      </c>
+      <c r="F937" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="938">
+      <c r="A938" s="0">
+        <v>1011</v>
+      </c>
+      <c r="B938" s="0" t="inlineStr">
+        <is>
+          <t>AG602</t>
+        </is>
+      </c>
+      <c r="C938" s="0">
+        <v>11</v>
+      </c>
+      <c r="D938" s="0">
+        <v>3</v>
+      </c>
+      <c r="E938" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F938" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G938" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="939">
+      <c r="A939" s="0">
+        <v>1012</v>
+      </c>
+      <c r="B939" s="0" t="inlineStr">
+        <is>
+          <t>AG602</t>
+        </is>
+      </c>
+      <c r="C939" s="0">
+        <v>24</v>
+      </c>
+      <c r="D939" s="0">
+        <v>5</v>
+      </c>
+      <c r="E939" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F939" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G939" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="940">
+      <c r="A940" s="0">
+        <v>1013</v>
+      </c>
+      <c r="B940" s="0" t="inlineStr">
+        <is>
+          <t>AG602</t>
+        </is>
+      </c>
+      <c r="C940" s="0">
+        <v>10</v>
+      </c>
+      <c r="D940" s="0">
+        <v>2</v>
+      </c>
+      <c r="E940" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F940" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G940" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="941">
+      <c r="A941" s="0">
+        <v>1014</v>
+      </c>
+      <c r="B941" s="0" t="inlineStr">
+        <is>
+          <t>AG602</t>
+        </is>
+      </c>
+      <c r="C941" s="0">
+        <v>19</v>
+      </c>
+      <c r="D941" s="0">
+        <v>4</v>
+      </c>
+      <c r="E941" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F941" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G941" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="942">
+      <c r="A942" s="0">
+        <v>1015</v>
+      </c>
+      <c r="B942" s="0" t="inlineStr">
+        <is>
+          <t>AG602</t>
+        </is>
+      </c>
+      <c r="C942" s="0">
+        <v>7</v>
+      </c>
+      <c r="D942" s="0">
+        <v>1</v>
+      </c>
+      <c r="E942" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F942" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G942" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="943">
+      <c r="A943" s="0">
+        <v>1016</v>
+      </c>
+      <c r="B943" s="0" t="inlineStr">
+        <is>
+          <t>AG602</t>
+        </is>
+      </c>
+      <c r="C943" s="0">
+        <v>73</v>
+      </c>
+      <c r="D943" s="0">
+        <v>6</v>
+      </c>
+      <c r="E943" s="0" t="inlineStr">
+        <is>
+          <t>Chromosome</t>
+        </is>
+      </c>
+      <c r="F943" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="G943" s="0" t="inlineStr">
+        <is>
+          <t>cth-mutation</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="944">
+      <c r="A944" s="0">
+        <v>1017</v>
+      </c>
+      <c r="B944" s="0" t="inlineStr">
+        <is>
+          <t>AG603</t>
+        </is>
+      </c>
+      <c r="C944" s="0">
+        <v>73</v>
+      </c>
+      <c r="D944" s="0">
+        <v>6</v>
+      </c>
+      <c r="F944" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="945">
+      <c r="A945" s="0">
+        <v>1018</v>
+      </c>
+      <c r="B945" s="0" t="inlineStr">
+        <is>
+          <t>AG604</t>
+        </is>
+      </c>
+      <c r="C945" s="0">
+        <v>73</v>
+      </c>
+      <c r="D945" s="0">
+        <v>6</v>
+      </c>
+      <c r="F945" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="946">
+      <c r="A946" s="0">
+        <v>1019</v>
+      </c>
+      <c r="B946" s="0" t="inlineStr">
+        <is>
+          <t>AG605</t>
+        </is>
+      </c>
+      <c r="C946" s="0">
+        <v>73</v>
+      </c>
+      <c r="D946" s="0">
+        <v>6</v>
+      </c>
+      <c r="F946" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="947">
+      <c r="A947" s="0">
+        <v>1020</v>
+      </c>
+      <c r="B947" s="0" t="inlineStr">
+        <is>
+          <t>AG599</t>
+        </is>
+      </c>
+      <c r="C947" s="0">
+        <v>73</v>
+      </c>
+      <c r="D947" s="0">
+        <v>6</v>
+      </c>
+      <c r="F947" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="948">
+      <c r="A948" s="0">
+        <v>1021</v>
+      </c>
+      <c r="B948" s="0" t="inlineStr">
+        <is>
+          <t>AG606</t>
+        </is>
+      </c>
+      <c r="C948" s="0">
+        <v>73</v>
+      </c>
+      <c r="D948" s="0">
+        <v>6</v>
+      </c>
+      <c r="F948" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="949">
+      <c r="A949" s="0">
+        <v>1022</v>
+      </c>
+      <c r="B949" s="0" t="inlineStr">
+        <is>
+          <t>AG607</t>
+        </is>
+      </c>
+      <c r="C949" s="0">
+        <v>73</v>
+      </c>
+      <c r="D949" s="0">
+        <v>6</v>
+      </c>
+      <c r="F949" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="950">
+      <c r="A950" s="0">
+        <v>1023</v>
+      </c>
+      <c r="B950" s="0" t="inlineStr">
+        <is>
+          <t>AG553</t>
+        </is>
+      </c>
+      <c r="C950" s="0">
+        <v>73</v>
+      </c>
+      <c r="D950" s="0">
+        <v>6</v>
+      </c>
+      <c r="F950" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="951">
+      <c r="A951" s="0">
+        <v>1024</v>
+      </c>
+      <c r="B951" s="0" t="inlineStr">
+        <is>
+          <t>AG2061</t>
+        </is>
+      </c>
+      <c r="C951" s="0">
+        <v>73</v>
+      </c>
+      <c r="D951" s="0">
+        <v>6</v>
+      </c>
+      <c r="F951" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="952">
+      <c r="A952" s="0">
+        <v>1025</v>
+      </c>
+      <c r="B952" s="0" t="inlineStr">
+        <is>
+          <t>AG2061</t>
+        </is>
+      </c>
+      <c r="C952" s="0">
+        <v>133</v>
+      </c>
+      <c r="D952" s="0">
+        <v>7</v>
+      </c>
+      <c r="F952" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="953">
+      <c r="A953" s="0">
+        <v>1026</v>
+      </c>
+      <c r="B953" s="0" t="inlineStr">
+        <is>
+          <t>AG2062</t>
+        </is>
+      </c>
+      <c r="C953" s="0">
+        <v>73</v>
+      </c>
+      <c r="D953" s="0">
+        <v>6</v>
+      </c>
+      <c r="F953" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="954">
+      <c r="A954" s="0">
+        <v>1027</v>
+      </c>
+      <c r="B954" s="0" t="inlineStr">
+        <is>
+          <t>AG2063</t>
+        </is>
+      </c>
+      <c r="C954" s="0">
+        <v>73</v>
+      </c>
+      <c r="D954" s="0">
+        <v>6</v>
+      </c>
+      <c r="F954" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="955">
+      <c r="A955" s="0">
+        <v>1028</v>
+      </c>
+      <c r="B955" s="0" t="inlineStr">
+        <is>
+          <t>AG2063</t>
+        </is>
+      </c>
+      <c r="C955" s="0">
+        <v>133</v>
+      </c>
+      <c r="D955" s="0">
+        <v>7</v>
+      </c>
+      <c r="F955" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="956">
+      <c r="A956" s="0">
+        <v>1029</v>
+      </c>
+      <c r="B956" s="0" t="inlineStr">
+        <is>
+          <t>AG2062</t>
+        </is>
+      </c>
+      <c r="C956" s="0">
+        <v>133</v>
+      </c>
+      <c r="D956" s="0">
+        <v>7</v>
+      </c>
+      <c r="F956" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="957">
+      <c r="A957" s="0">
+        <v>1030</v>
+      </c>
+      <c r="B957" s="0" t="inlineStr">
+        <is>
+          <t>LL1385</t>
+        </is>
+      </c>
+      <c r="C957" s="0">
+        <v>70</v>
+      </c>
+      <c r="D957" s="0">
+        <v>4</v>
+      </c>
+      <c r="F957" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="958">
+      <c r="A958" s="0">
+        <v>1031</v>
+      </c>
+      <c r="B958" s="0" t="inlineStr">
+        <is>
+          <t>LL1384</t>
+        </is>
+      </c>
+      <c r="C958" s="0">
+        <v>70</v>
+      </c>
+      <c r="D958" s="0">
+        <v>2</v>
+      </c>
+      <c r="F958" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="959">
+      <c r="A959" s="0">
+        <v>1032</v>
+      </c>
+      <c r="B959" s="0" t="inlineStr">
+        <is>
+          <t>AG604</t>
+        </is>
+      </c>
+      <c r="C959" s="0">
+        <v>11</v>
+      </c>
+      <c r="D959" s="0">
+        <v>3</v>
+      </c>
+      <c r="F959" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="960">
+      <c r="A960" s="0">
+        <v>1034</v>
+      </c>
+      <c r="B960" s="0" t="inlineStr">
+        <is>
+          <t>AG608</t>
+        </is>
+      </c>
+      <c r="C960" s="0">
+        <v>147</v>
+      </c>
+      <c r="D960" s="0">
+        <v>1</v>
+      </c>
+      <c r="F960" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="961">
+      <c r="A961" s="0">
+        <v>1035</v>
+      </c>
+      <c r="B961" s="0" t="inlineStr">
+        <is>
+          <t>AG609</t>
+        </is>
+      </c>
+      <c r="C961" s="0">
+        <v>147</v>
+      </c>
+      <c r="D961" s="0">
+        <v>1</v>
+      </c>
+      <c r="F961" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="962">
+      <c r="A962" s="0">
+        <v>1036</v>
+      </c>
+      <c r="B962" s="0" t="inlineStr">
+        <is>
+          <t>AG610</t>
+        </is>
+      </c>
+      <c r="C962" s="0">
+        <v>147</v>
+      </c>
+      <c r="D962" s="0">
+        <v>1</v>
+      </c>
+      <c r="F962" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="963">
+      <c r="A963" s="0">
+        <v>1037</v>
+      </c>
+      <c r="B963" s="0" t="inlineStr">
+        <is>
+          <t>AG611</t>
+        </is>
+      </c>
+      <c r="C963" s="0">
+        <v>147</v>
+      </c>
+      <c r="D963" s="0">
+        <v>1</v>
+      </c>
+      <c r="F963" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="964">
+      <c r="A964" s="0">
+        <v>1038</v>
+      </c>
+      <c r="B964" s="0" t="inlineStr">
+        <is>
+          <t>AG612</t>
+        </is>
+      </c>
+      <c r="C964" s="0">
+        <v>147</v>
+      </c>
+      <c r="D964" s="0">
+        <v>1</v>
+      </c>
+      <c r="F964" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="965">
+      <c r="A965" s="0">
+        <v>1039</v>
+      </c>
+      <c r="B965" s="0" t="inlineStr">
+        <is>
+          <t>AG613</t>
+        </is>
+      </c>
+      <c r="C965" s="0">
+        <v>147</v>
+      </c>
+      <c r="D965" s="0">
+        <v>1</v>
+      </c>
+      <c r="F965" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="966">
+      <c r="A966" s="0">
+        <v>1040</v>
+      </c>
+      <c r="B966" s="0" t="inlineStr">
+        <is>
+          <t>AG614</t>
+        </is>
+      </c>
+      <c r="C966" s="0">
+        <v>147</v>
+      </c>
+      <c r="D966" s="0">
+        <v>1</v>
+      </c>
+      <c r="F966" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="967">
+      <c r="A967" s="0">
+        <v>1041</v>
+      </c>
+      <c r="B967" s="0" t="inlineStr">
+        <is>
+          <t>AG615</t>
+        </is>
+      </c>
+      <c r="C967" s="0">
+        <v>147</v>
+      </c>
+      <c r="D967" s="0">
+        <v>1</v>
+      </c>
+      <c r="F967" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="968">
+      <c r="A968" s="0">
+        <v>1042</v>
+      </c>
+      <c r="B968" s="0" t="inlineStr">
+        <is>
+          <t>AG1155</t>
+        </is>
+      </c>
+      <c r="C968" s="0">
+        <v>147</v>
+      </c>
+      <c r="D968" s="0">
+        <v>1</v>
+      </c>
+      <c r="F968" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="969">
+      <c r="A969" s="0">
+        <v>1043</v>
+      </c>
+      <c r="B969" s="0" t="inlineStr">
+        <is>
+          <t>AG1155</t>
+        </is>
+      </c>
+      <c r="C969" s="0">
+        <v>149</v>
+      </c>
+      <c r="D969" s="0">
+        <v>2</v>
+      </c>
+      <c r="F969" s="0" t="b">
         <v>0</v>
       </c>
     </row>
